--- a/ValueSet-discharge-destination-vs.xlsx
+++ b/ValueSet-discharge-destination-vs.xlsx
@@ -84,7 +84,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines possible patient discharge destinations.</t>
+    <t>This ValueSet enumerates discharge destination concepts (primarily SNOMED CT procedure-like “discharge to …” concepts).
+**Primary use-cases**
+- Bind to discharge disposition elements in encounter/hospitalization modeling.
+  enabling consistent:
+  - care transition analytics,
+  - pathway reporting (home vs ward vs facility vs mortuary),
+  - downstream coordination workflows.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-discharge-destination-vs.xlsx
+++ b/ValueSet-discharge-destination-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
